--- a/medicine/Psychotrope/Latte_art/Latte_art.xlsx
+++ b/medicine/Psychotrope/Latte_art/Latte_art.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le latte art est une technique de réalisation de dessins ou de motifs sur la surface d'un café latte. Les motifs les plus courants sont le cœur, la rosetta, la tulipe, puis le dragon, le cygne.
 Le but est de mettre en valeur le cappucino composé d'un tiers de lait, d'un tiers d'expresso et d'un tiers de mousse de lait. La réussite du latte art requiert un barista expérimenté et une machine à expresso de qualité.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,10 +552,12 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le barista fait couler un expresso dans une tasse. Le café doit avoir une belle mousse à la surface du café (la crema), elle peut être tigrée de différents bruns si le café utilisé est de qualité, fraichement moulu et que les conditions d'extraction de l'expresso ont été respectées.
-Puis le barista met du lait (de préférence entier) dans un pichet à lait. Il va ensuite le faire mousser avec la buse à vapeur de la machine, introduite juste sous la surface du lait. Cette technique requiert une bonne dextérité pour obtenir une mousse de lait onctueuse et lisse afin qu'elle se prête au latte art. Il ajoute après la mousse doucement dans le café avec différents gestes en fonction du dessin recherché[1].
+Puis le barista met du lait (de préférence entier) dans un pichet à lait. Il va ensuite le faire mousser avec la buse à vapeur de la machine, introduite juste sous la surface du lait. Cette technique requiert une bonne dextérité pour obtenir une mousse de lait onctueuse et lisse afin qu'elle se prête au latte art. Il ajoute après la mousse doucement dans le café avec différents gestes en fonction du dessin recherché.
 </t>
         </is>
       </c>
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
